--- a/주별 시설점검체크.xlsx
+++ b/주별 시설점검체크.xlsx
@@ -5,16 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/52a66d801fd720f3/바탕 화면/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/52a66d801fd720f3/바탕 화면/데스크 공동작업폴더/kws/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="20" documentId="8_{91EBF569-26CB-4431-95FF-C5AA28EB7F2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{ABAEA297-B0B1-4A79-AC21-DA081FFD0695}"/>
+  <xr:revisionPtr revIDLastSave="31" documentId="8_{91EBF569-26CB-4431-95FF-C5AA28EB7F2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2F200D74-2155-4762-8486-6CF730B1F4C6}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="780" windowWidth="21240" windowHeight="14415" activeTab="1" xr2:uid="{B16F5FD5-704D-48D7-B92F-B1B9FF05BDFA}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="26670" windowHeight="14415" activeTab="2" xr2:uid="{B16F5FD5-704D-48D7-B92F-B1B9FF05BDFA}"/>
   </bookViews>
   <sheets>
     <sheet name="2월3-2월9일" sheetId="1" r:id="rId1"/>
     <sheet name="2월10일-2월16" sheetId="2" r:id="rId2"/>
+    <sheet name="2월17일-2월23일" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="57">
   <si>
     <t>인터폰</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -221,6 +222,38 @@
   </si>
   <si>
     <t>2025년 2월10일 ~ 2월 16일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2025년 2월17일 ~ 2월 23일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>월(17 )</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>화(18)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수(19)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>목(20)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>금(21)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>토(22)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>일(23)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1513,6 +1546,15 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="A47:K47"/>
+    <mergeCell ref="B7:B9"/>
+    <mergeCell ref="B35:B37"/>
+    <mergeCell ref="B38:B40"/>
+    <mergeCell ref="B42:B43"/>
+    <mergeCell ref="B44:B46"/>
+    <mergeCell ref="B30:B31"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="A38:A46"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="B19:B20"/>
     <mergeCell ref="B21:B23"/>
@@ -1525,15 +1567,6 @@
     <mergeCell ref="B5:B6"/>
     <mergeCell ref="B10:B12"/>
     <mergeCell ref="B13:B15"/>
-    <mergeCell ref="A47:K47"/>
-    <mergeCell ref="B7:B9"/>
-    <mergeCell ref="B35:B37"/>
-    <mergeCell ref="B38:B40"/>
-    <mergeCell ref="B42:B43"/>
-    <mergeCell ref="B44:B46"/>
-    <mergeCell ref="B30:B31"/>
-    <mergeCell ref="B33:B34"/>
-    <mergeCell ref="A38:A46"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1545,7 +1578,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9EF9FB3-9AE9-4A57-82AB-F3FCF0834CFB}">
   <dimension ref="A1:K47"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A2" sqref="A2:A12"/>
     </sheetView>
   </sheetViews>
@@ -1584,6 +1617,822 @@
       </c>
       <c r="J1" s="7" t="s">
         <v>44</v>
+      </c>
+      <c r="K1" s="6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
+      <c r="J2" s="7"/>
+      <c r="K2" s="1"/>
+    </row>
+    <row r="3" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="9"/>
+      <c r="B3" s="9"/>
+      <c r="C3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="7"/>
+      <c r="K3" s="1"/>
+    </row>
+    <row r="4" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="9"/>
+      <c r="B4" s="9"/>
+      <c r="C4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="7"/>
+      <c r="J4" s="7"/>
+      <c r="K4" s="1"/>
+    </row>
+    <row r="5" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="9"/>
+      <c r="B5" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="7"/>
+      <c r="K5" s="1"/>
+    </row>
+    <row r="6" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="9"/>
+      <c r="B6" s="9"/>
+      <c r="C6" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="7"/>
+      <c r="K6" s="1"/>
+    </row>
+    <row r="7" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="9"/>
+      <c r="B7" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="7"/>
+      <c r="J7" s="7"/>
+      <c r="K7" s="1"/>
+    </row>
+    <row r="8" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="9"/>
+      <c r="B8" s="14"/>
+      <c r="C8" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="7"/>
+      <c r="J8" s="7"/>
+      <c r="K8" s="1"/>
+    </row>
+    <row r="9" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="9"/>
+      <c r="B9" s="15"/>
+      <c r="C9" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="7"/>
+      <c r="J9" s="7"/>
+      <c r="K9" s="1"/>
+    </row>
+    <row r="10" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="9"/>
+      <c r="B10" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="7"/>
+      <c r="J10" s="7"/>
+      <c r="K10" s="1"/>
+    </row>
+    <row r="11" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="9"/>
+      <c r="B11" s="9"/>
+      <c r="C11" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="7"/>
+      <c r="I11" s="7"/>
+      <c r="J11" s="7"/>
+      <c r="K11" s="1"/>
+    </row>
+    <row r="12" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="9"/>
+      <c r="B12" s="9"/>
+      <c r="C12" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="7"/>
+      <c r="I12" s="7"/>
+      <c r="J12" s="7"/>
+      <c r="K12" s="1"/>
+    </row>
+    <row r="13" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7"/>
+      <c r="I13" s="7"/>
+      <c r="J13" s="7"/>
+      <c r="K13" s="1"/>
+    </row>
+    <row r="14" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="9"/>
+      <c r="B14" s="9"/>
+      <c r="C14" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D14" s="7"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="7"/>
+      <c r="I14" s="7"/>
+      <c r="J14" s="7"/>
+      <c r="K14" s="1"/>
+    </row>
+    <row r="15" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="9"/>
+      <c r="B15" s="9"/>
+      <c r="C15" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="7"/>
+      <c r="I15" s="7"/>
+      <c r="J15" s="7"/>
+      <c r="K15" s="1"/>
+    </row>
+    <row r="16" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="9"/>
+      <c r="B16" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D16" s="7"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="7"/>
+      <c r="I16" s="7"/>
+      <c r="J16" s="7"/>
+      <c r="K16" s="1"/>
+    </row>
+    <row r="17" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="9"/>
+      <c r="B17" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D17" s="7"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="7"/>
+      <c r="H17" s="7"/>
+      <c r="I17" s="7"/>
+      <c r="J17" s="7"/>
+      <c r="K17" s="1"/>
+    </row>
+    <row r="18" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="9"/>
+      <c r="B18" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D18" s="7"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="7"/>
+      <c r="H18" s="7"/>
+      <c r="I18" s="7"/>
+      <c r="J18" s="7"/>
+      <c r="K18" s="1"/>
+    </row>
+    <row r="19" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="9"/>
+      <c r="B19" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D19" s="7"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="7"/>
+      <c r="G19" s="7"/>
+      <c r="H19" s="7"/>
+      <c r="I19" s="7"/>
+      <c r="J19" s="7"/>
+      <c r="K19" s="1"/>
+    </row>
+    <row r="20" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="9"/>
+      <c r="B20" s="9"/>
+      <c r="C20" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D20" s="7"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="7"/>
+      <c r="G20" s="7"/>
+      <c r="H20" s="7"/>
+      <c r="I20" s="7"/>
+      <c r="J20" s="7"/>
+      <c r="K20" s="1"/>
+    </row>
+    <row r="21" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="9"/>
+      <c r="B21" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D21" s="7"/>
+      <c r="E21" s="7"/>
+      <c r="F21" s="7"/>
+      <c r="G21" s="7"/>
+      <c r="H21" s="7"/>
+      <c r="I21" s="7"/>
+      <c r="J21" s="7"/>
+      <c r="K21" s="1"/>
+    </row>
+    <row r="22" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="9"/>
+      <c r="B22" s="9"/>
+      <c r="C22" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D22" s="7"/>
+      <c r="E22" s="7"/>
+      <c r="F22" s="7"/>
+      <c r="G22" s="7"/>
+      <c r="H22" s="7"/>
+      <c r="I22" s="7"/>
+      <c r="J22" s="7"/>
+      <c r="K22" s="1"/>
+    </row>
+    <row r="23" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="9"/>
+      <c r="B23" s="9"/>
+      <c r="C23" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D23" s="7"/>
+      <c r="E23" s="7"/>
+      <c r="F23" s="7"/>
+      <c r="G23" s="7"/>
+      <c r="H23" s="7"/>
+      <c r="I23" s="7"/>
+      <c r="J23" s="7"/>
+      <c r="K23" s="1"/>
+    </row>
+    <row r="24" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="B24" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D24" s="7"/>
+      <c r="E24" s="7"/>
+      <c r="F24" s="7"/>
+      <c r="G24" s="7"/>
+      <c r="H24" s="7"/>
+      <c r="I24" s="7"/>
+      <c r="J24" s="7"/>
+      <c r="K24" s="1"/>
+    </row>
+    <row r="25" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="9"/>
+      <c r="B25" s="9"/>
+      <c r="C25" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D25" s="7"/>
+      <c r="E25" s="7"/>
+      <c r="F25" s="7"/>
+      <c r="G25" s="7"/>
+      <c r="H25" s="7"/>
+      <c r="I25" s="7"/>
+      <c r="J25" s="7"/>
+      <c r="K25" s="1"/>
+    </row>
+    <row r="26" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="9"/>
+      <c r="B26" s="9"/>
+      <c r="C26" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D26" s="7"/>
+      <c r="E26" s="7"/>
+      <c r="F26" s="7"/>
+      <c r="G26" s="7"/>
+      <c r="H26" s="7"/>
+      <c r="I26" s="7"/>
+      <c r="J26" s="7"/>
+      <c r="K26" s="1"/>
+    </row>
+    <row r="27" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="9"/>
+      <c r="B27" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D27" s="7"/>
+      <c r="E27" s="7"/>
+      <c r="F27" s="7"/>
+      <c r="G27" s="7"/>
+      <c r="H27" s="7"/>
+      <c r="I27" s="7"/>
+      <c r="J27" s="7"/>
+      <c r="K27" s="1"/>
+    </row>
+    <row r="28" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="9"/>
+      <c r="B28" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D28" s="7"/>
+      <c r="E28" s="7"/>
+      <c r="F28" s="7"/>
+      <c r="G28" s="7"/>
+      <c r="H28" s="7"/>
+      <c r="I28" s="7"/>
+      <c r="J28" s="7"/>
+      <c r="K28" s="1"/>
+    </row>
+    <row r="29" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="9"/>
+      <c r="B29" s="9"/>
+      <c r="C29" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D29" s="7"/>
+      <c r="E29" s="7"/>
+      <c r="F29" s="7"/>
+      <c r="G29" s="7"/>
+      <c r="H29" s="7"/>
+      <c r="I29" s="7"/>
+      <c r="J29" s="7"/>
+      <c r="K29" s="1"/>
+    </row>
+    <row r="30" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="9"/>
+      <c r="B30" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D30" s="7"/>
+      <c r="E30" s="7"/>
+      <c r="F30" s="7"/>
+      <c r="G30" s="7"/>
+      <c r="H30" s="7"/>
+      <c r="I30" s="7"/>
+      <c r="J30" s="7"/>
+      <c r="K30" s="1"/>
+    </row>
+    <row r="31" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="9"/>
+      <c r="B31" s="9"/>
+      <c r="C31" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D31" s="7"/>
+      <c r="E31" s="7"/>
+      <c r="F31" s="7"/>
+      <c r="G31" s="7"/>
+      <c r="H31" s="7"/>
+      <c r="I31" s="7"/>
+      <c r="J31" s="7"/>
+      <c r="K31" s="1"/>
+    </row>
+    <row r="32" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="9"/>
+      <c r="B32" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D32" s="7"/>
+      <c r="E32" s="7"/>
+      <c r="F32" s="7"/>
+      <c r="G32" s="7"/>
+      <c r="H32" s="7"/>
+      <c r="I32" s="7"/>
+      <c r="J32" s="7"/>
+      <c r="K32" s="1"/>
+    </row>
+    <row r="33" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="9"/>
+      <c r="B33" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D33" s="7"/>
+      <c r="E33" s="7"/>
+      <c r="F33" s="7"/>
+      <c r="G33" s="7"/>
+      <c r="H33" s="7"/>
+      <c r="I33" s="7"/>
+      <c r="J33" s="7"/>
+      <c r="K33" s="1"/>
+    </row>
+    <row r="34" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="9"/>
+      <c r="B34" s="9"/>
+      <c r="C34" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D34" s="7"/>
+      <c r="E34" s="7"/>
+      <c r="F34" s="7"/>
+      <c r="G34" s="7"/>
+      <c r="H34" s="7"/>
+      <c r="I34" s="7"/>
+      <c r="J34" s="7"/>
+      <c r="K34" s="1"/>
+    </row>
+    <row r="35" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="9"/>
+      <c r="B35" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D35" s="7"/>
+      <c r="E35" s="7"/>
+      <c r="F35" s="7"/>
+      <c r="G35" s="7"/>
+      <c r="H35" s="7"/>
+      <c r="I35" s="7"/>
+      <c r="J35" s="7"/>
+      <c r="K35" s="1"/>
+    </row>
+    <row r="36" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="9"/>
+      <c r="B36" s="9"/>
+      <c r="C36" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D36" s="7"/>
+      <c r="E36" s="7"/>
+      <c r="F36" s="7"/>
+      <c r="G36" s="7"/>
+      <c r="H36" s="7"/>
+      <c r="I36" s="7"/>
+      <c r="J36" s="7"/>
+      <c r="K36" s="1"/>
+    </row>
+    <row r="37" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="9"/>
+      <c r="B37" s="9"/>
+      <c r="C37" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D37" s="7"/>
+      <c r="E37" s="7"/>
+      <c r="F37" s="7"/>
+      <c r="G37" s="7"/>
+      <c r="H37" s="7"/>
+      <c r="I37" s="7"/>
+      <c r="J37" s="7"/>
+      <c r="K37" s="1"/>
+    </row>
+    <row r="38" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="B38" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D38" s="7"/>
+      <c r="E38" s="7"/>
+      <c r="F38" s="7"/>
+      <c r="G38" s="7"/>
+      <c r="H38" s="7"/>
+      <c r="I38" s="7"/>
+      <c r="J38" s="7"/>
+      <c r="K38" s="1"/>
+    </row>
+    <row r="39" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="9"/>
+      <c r="B39" s="9"/>
+      <c r="C39" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D39" s="7"/>
+      <c r="E39" s="7"/>
+      <c r="F39" s="7"/>
+      <c r="G39" s="7"/>
+      <c r="H39" s="7"/>
+      <c r="I39" s="7"/>
+      <c r="J39" s="7"/>
+      <c r="K39" s="1"/>
+    </row>
+    <row r="40" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="9"/>
+      <c r="B40" s="9"/>
+      <c r="C40" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D40" s="7"/>
+      <c r="E40" s="7"/>
+      <c r="F40" s="7"/>
+      <c r="G40" s="7"/>
+      <c r="H40" s="7"/>
+      <c r="I40" s="7"/>
+      <c r="J40" s="7"/>
+      <c r="K40" s="1"/>
+    </row>
+    <row r="41" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="9"/>
+      <c r="B41" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D41" s="7"/>
+      <c r="E41" s="7"/>
+      <c r="F41" s="7"/>
+      <c r="G41" s="7"/>
+      <c r="H41" s="7"/>
+      <c r="I41" s="7"/>
+      <c r="J41" s="7"/>
+      <c r="K41" s="1"/>
+    </row>
+    <row r="42" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="9"/>
+      <c r="B42" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D42" s="7"/>
+      <c r="E42" s="7"/>
+      <c r="F42" s="7"/>
+      <c r="G42" s="7"/>
+      <c r="H42" s="7"/>
+      <c r="I42" s="7"/>
+      <c r="J42" s="7"/>
+      <c r="K42" s="1"/>
+    </row>
+    <row r="43" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="9"/>
+      <c r="B43" s="9"/>
+      <c r="C43" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D43" s="7"/>
+      <c r="E43" s="7"/>
+      <c r="F43" s="7"/>
+      <c r="G43" s="7"/>
+      <c r="H43" s="7"/>
+      <c r="I43" s="7"/>
+      <c r="J43" s="7"/>
+      <c r="K43" s="1"/>
+    </row>
+    <row r="44" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="9"/>
+      <c r="B44" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D44" s="7"/>
+      <c r="E44" s="7"/>
+      <c r="F44" s="7"/>
+      <c r="G44" s="7"/>
+      <c r="H44" s="7"/>
+      <c r="I44" s="7"/>
+      <c r="J44" s="7"/>
+      <c r="K44" s="1"/>
+    </row>
+    <row r="45" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="9"/>
+      <c r="B45" s="9"/>
+      <c r="C45" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D45" s="7"/>
+      <c r="E45" s="7"/>
+      <c r="F45" s="7"/>
+      <c r="G45" s="7"/>
+      <c r="H45" s="7"/>
+      <c r="I45" s="7"/>
+      <c r="J45" s="7"/>
+      <c r="K45" s="1"/>
+    </row>
+    <row r="46" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="9"/>
+      <c r="B46" s="9"/>
+      <c r="C46" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D46" s="7"/>
+      <c r="E46" s="7"/>
+      <c r="F46" s="7"/>
+      <c r="G46" s="7"/>
+      <c r="H46" s="7"/>
+      <c r="I46" s="7"/>
+      <c r="J46" s="7"/>
+      <c r="K46" s="1"/>
+    </row>
+    <row r="47" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="10"/>
+      <c r="B47" s="11"/>
+      <c r="C47" s="11"/>
+      <c r="D47" s="11"/>
+      <c r="E47" s="11"/>
+      <c r="F47" s="11"/>
+      <c r="G47" s="11"/>
+      <c r="H47" s="11"/>
+      <c r="I47" s="11"/>
+      <c r="J47" s="11"/>
+      <c r="K47" s="12"/>
+    </row>
+  </sheetData>
+  <mergeCells count="21">
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A2:A12"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="B7:B9"/>
+    <mergeCell ref="B10:B12"/>
+    <mergeCell ref="A13:A23"/>
+    <mergeCell ref="B13:B15"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="B21:B23"/>
+    <mergeCell ref="A24:A37"/>
+    <mergeCell ref="B24:B26"/>
+    <mergeCell ref="B28:B29"/>
+    <mergeCell ref="B30:B31"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="B35:B37"/>
+    <mergeCell ref="A38:A46"/>
+    <mergeCell ref="B38:B40"/>
+    <mergeCell ref="B42:B43"/>
+    <mergeCell ref="B44:B46"/>
+    <mergeCell ref="A47:K47"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{325B9A6C-03E7-4340-BF0C-6D03BAC598FD}">
+  <dimension ref="A1:K47"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I6" sqref="I6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="4.375" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.125" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.625" style="4" customWidth="1"/>
+    <col min="4" max="10" width="5.625" style="8" customWidth="1"/>
+    <col min="11" max="11" width="18.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="H1" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="I1" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="J1" s="7" t="s">
+        <v>56</v>
       </c>
       <c r="K1" s="6" t="s">
         <v>33</v>

--- a/주별 시설점검체크.xlsx
+++ b/주별 시설점검체크.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/52a66d801fd720f3/바탕 화면/데스크 공동작업폴더/kws/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="31" documentId="8_{91EBF569-26CB-4431-95FF-C5AA28EB7F2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2F200D74-2155-4762-8486-6CF730B1F4C6}"/>
+  <xr:revisionPtr revIDLastSave="35" documentId="8_{91EBF569-26CB-4431-95FF-C5AA28EB7F2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D821495D-4C9A-46E2-BA3C-F9895E32DC8E}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="26670" windowHeight="14415" activeTab="2" xr2:uid="{B16F5FD5-704D-48D7-B92F-B1B9FF05BDFA}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15210" windowHeight="14415" firstSheet="1" activeTab="3" xr2:uid="{B16F5FD5-704D-48D7-B92F-B1B9FF05BDFA}"/>
   </bookViews>
   <sheets>
     <sheet name="2월3-2월9일" sheetId="1" r:id="rId1"/>
     <sheet name="2월10일-2월16" sheetId="2" r:id="rId2"/>
     <sheet name="2월17일-2월23일" sheetId="3" r:id="rId3"/>
+    <sheet name="2월24일-3월2일" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="64">
   <si>
     <t>인터폰</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -254,6 +255,34 @@
   </si>
   <si>
     <t>일(23)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>월(24 )</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>화(25)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수(26)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>목(27)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>금(28)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>토(1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>일(2)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -425,9 +454,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -444,6 +470,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -776,11 +805,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
       <c r="D1" s="7" t="s">
         <v>38</v>
       </c>
@@ -807,10 +836,10 @@
       </c>
     </row>
     <row r="2" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="15" t="s">
         <v>5</v>
       </c>
       <c r="C2" s="2" t="s">
@@ -826,8 +855,8 @@
       <c r="K2" s="1"/>
     </row>
     <row r="3" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="9"/>
-      <c r="B3" s="9"/>
+      <c r="A3" s="15"/>
+      <c r="B3" s="15"/>
       <c r="C3" s="2" t="s">
         <v>7</v>
       </c>
@@ -841,8 +870,8 @@
       <c r="K3" s="1"/>
     </row>
     <row r="4" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="9"/>
-      <c r="B4" s="9"/>
+      <c r="A4" s="15"/>
+      <c r="B4" s="15"/>
       <c r="C4" s="2" t="s">
         <v>9</v>
       </c>
@@ -856,8 +885,8 @@
       <c r="K4" s="1"/>
     </row>
     <row r="5" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="9"/>
-      <c r="B5" s="9" t="s">
+      <c r="A5" s="15"/>
+      <c r="B5" s="15" t="s">
         <v>6</v>
       </c>
       <c r="C5" s="2" t="s">
@@ -873,8 +902,8 @@
       <c r="K5" s="1"/>
     </row>
     <row r="6" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="9"/>
-      <c r="B6" s="9"/>
+      <c r="A6" s="15"/>
+      <c r="B6" s="15"/>
       <c r="C6" s="2" t="s">
         <v>11</v>
       </c>
@@ -888,8 +917,8 @@
       <c r="K6" s="1"/>
     </row>
     <row r="7" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="9"/>
-      <c r="B7" s="13" t="s">
+      <c r="A7" s="15"/>
+      <c r="B7" s="12" t="s">
         <v>13</v>
       </c>
       <c r="C7" s="2" t="s">
@@ -905,8 +934,8 @@
       <c r="K7" s="1"/>
     </row>
     <row r="8" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="9"/>
-      <c r="B8" s="14"/>
+      <c r="A8" s="15"/>
+      <c r="B8" s="13"/>
       <c r="C8" s="2" t="s">
         <v>47</v>
       </c>
@@ -920,8 +949,8 @@
       <c r="K8" s="1"/>
     </row>
     <row r="9" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="9"/>
-      <c r="B9" s="15"/>
+      <c r="A9" s="15"/>
+      <c r="B9" s="14"/>
       <c r="C9" s="2" t="s">
         <v>46</v>
       </c>
@@ -935,8 +964,8 @@
       <c r="K9" s="1"/>
     </row>
     <row r="10" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="9"/>
-      <c r="B10" s="9" t="s">
+      <c r="A10" s="15"/>
+      <c r="B10" s="15" t="s">
         <v>14</v>
       </c>
       <c r="C10" s="2" t="s">
@@ -952,8 +981,8 @@
       <c r="K10" s="1"/>
     </row>
     <row r="11" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="9"/>
-      <c r="B11" s="9"/>
+      <c r="A11" s="15"/>
+      <c r="B11" s="15"/>
       <c r="C11" s="2" t="s">
         <v>16</v>
       </c>
@@ -967,8 +996,8 @@
       <c r="K11" s="1"/>
     </row>
     <row r="12" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="9"/>
-      <c r="B12" s="9"/>
+      <c r="A12" s="15"/>
+      <c r="B12" s="15"/>
       <c r="C12" s="2" t="s">
         <v>17</v>
       </c>
@@ -982,10 +1011,10 @@
       <c r="K12" s="1"/>
     </row>
     <row r="13" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="9" t="s">
+      <c r="A13" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="B13" s="9" t="s">
+      <c r="B13" s="15" t="s">
         <v>5</v>
       </c>
       <c r="C13" s="2" t="s">
@@ -1001,8 +1030,8 @@
       <c r="K13" s="1"/>
     </row>
     <row r="14" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="9"/>
-      <c r="B14" s="9"/>
+      <c r="A14" s="15"/>
+      <c r="B14" s="15"/>
       <c r="C14" s="2" t="s">
         <v>7</v>
       </c>
@@ -1016,8 +1045,8 @@
       <c r="K14" s="1"/>
     </row>
     <row r="15" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="9"/>
-      <c r="B15" s="9"/>
+      <c r="A15" s="15"/>
+      <c r="B15" s="15"/>
       <c r="C15" s="2" t="s">
         <v>9</v>
       </c>
@@ -1031,7 +1060,7 @@
       <c r="K15" s="1"/>
     </row>
     <row r="16" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="9"/>
+      <c r="A16" s="15"/>
       <c r="B16" s="3" t="s">
         <v>34</v>
       </c>
@@ -1048,7 +1077,7 @@
       <c r="K16" s="1"/>
     </row>
     <row r="17" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="9"/>
+      <c r="A17" s="15"/>
       <c r="B17" s="3" t="s">
         <v>6</v>
       </c>
@@ -1065,7 +1094,7 @@
       <c r="K17" s="1"/>
     </row>
     <row r="18" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="9"/>
+      <c r="A18" s="15"/>
       <c r="B18" s="3" t="s">
         <v>18</v>
       </c>
@@ -1082,8 +1111,8 @@
       <c r="K18" s="1"/>
     </row>
     <row r="19" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="9"/>
-      <c r="B19" s="9" t="s">
+      <c r="A19" s="15"/>
+      <c r="B19" s="15" t="s">
         <v>20</v>
       </c>
       <c r="C19" s="2" t="s">
@@ -1099,8 +1128,8 @@
       <c r="K19" s="1"/>
     </row>
     <row r="20" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="9"/>
-      <c r="B20" s="9"/>
+      <c r="A20" s="15"/>
+      <c r="B20" s="15"/>
       <c r="C20" s="2" t="s">
         <v>22</v>
       </c>
@@ -1114,8 +1143,8 @@
       <c r="K20" s="1"/>
     </row>
     <row r="21" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="9"/>
-      <c r="B21" s="9" t="s">
+      <c r="A21" s="15"/>
+      <c r="B21" s="15" t="s">
         <v>28</v>
       </c>
       <c r="C21" s="2" t="s">
@@ -1131,8 +1160,8 @@
       <c r="K21" s="1"/>
     </row>
     <row r="22" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="9"/>
-      <c r="B22" s="9"/>
+      <c r="A22" s="15"/>
+      <c r="B22" s="15"/>
       <c r="C22" s="2" t="s">
         <v>30</v>
       </c>
@@ -1146,8 +1175,8 @@
       <c r="K22" s="1"/>
     </row>
     <row r="23" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="9"/>
-      <c r="B23" s="9"/>
+      <c r="A23" s="15"/>
+      <c r="B23" s="15"/>
       <c r="C23" s="2" t="s">
         <v>0</v>
       </c>
@@ -1161,10 +1190,10 @@
       <c r="K23" s="1"/>
     </row>
     <row r="24" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="9" t="s">
+      <c r="A24" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="B24" s="9" t="s">
+      <c r="B24" s="15" t="s">
         <v>5</v>
       </c>
       <c r="C24" s="2" t="s">
@@ -1180,8 +1209,8 @@
       <c r="K24" s="1"/>
     </row>
     <row r="25" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="9"/>
-      <c r="B25" s="9"/>
+      <c r="A25" s="15"/>
+      <c r="B25" s="15"/>
       <c r="C25" s="2" t="s">
         <v>7</v>
       </c>
@@ -1195,8 +1224,8 @@
       <c r="K25" s="1"/>
     </row>
     <row r="26" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="9"/>
-      <c r="B26" s="9"/>
+      <c r="A26" s="15"/>
+      <c r="B26" s="15"/>
       <c r="C26" s="2" t="s">
         <v>9</v>
       </c>
@@ -1210,7 +1239,7 @@
       <c r="K26" s="1"/>
     </row>
     <row r="27" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="9"/>
+      <c r="A27" s="15"/>
       <c r="B27" s="3" t="s">
         <v>34</v>
       </c>
@@ -1227,8 +1256,8 @@
       <c r="K27" s="1"/>
     </row>
     <row r="28" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="9"/>
-      <c r="B28" s="9" t="s">
+      <c r="A28" s="15"/>
+      <c r="B28" s="15" t="s">
         <v>6</v>
       </c>
       <c r="C28" s="2" t="s">
@@ -1244,8 +1273,8 @@
       <c r="K28" s="1"/>
     </row>
     <row r="29" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="9"/>
-      <c r="B29" s="9"/>
+      <c r="A29" s="15"/>
+      <c r="B29" s="15"/>
       <c r="C29" s="2" t="s">
         <v>31</v>
       </c>
@@ -1259,8 +1288,8 @@
       <c r="K29" s="1"/>
     </row>
     <row r="30" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="9"/>
-      <c r="B30" s="9" t="s">
+      <c r="A30" s="15"/>
+      <c r="B30" s="15" t="s">
         <v>23</v>
       </c>
       <c r="C30" s="2" t="s">
@@ -1276,8 +1305,8 @@
       <c r="K30" s="1"/>
     </row>
     <row r="31" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="9"/>
-      <c r="B31" s="9"/>
+      <c r="A31" s="15"/>
+      <c r="B31" s="15"/>
       <c r="C31" s="2" t="s">
         <v>37</v>
       </c>
@@ -1291,7 +1320,7 @@
       <c r="K31" s="1"/>
     </row>
     <row r="32" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="9"/>
+      <c r="A32" s="15"/>
       <c r="B32" s="3" t="s">
         <v>24</v>
       </c>
@@ -1308,8 +1337,8 @@
       <c r="K32" s="1"/>
     </row>
     <row r="33" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="9"/>
-      <c r="B33" s="9" t="s">
+      <c r="A33" s="15"/>
+      <c r="B33" s="15" t="s">
         <v>27</v>
       </c>
       <c r="C33" s="2" t="s">
@@ -1325,8 +1354,8 @@
       <c r="K33" s="1"/>
     </row>
     <row r="34" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="9"/>
-      <c r="B34" s="9"/>
+      <c r="A34" s="15"/>
+      <c r="B34" s="15"/>
       <c r="C34" s="2" t="s">
         <v>26</v>
       </c>
@@ -1340,8 +1369,8 @@
       <c r="K34" s="1"/>
     </row>
     <row r="35" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="9"/>
-      <c r="B35" s="9" t="s">
+      <c r="A35" s="15"/>
+      <c r="B35" s="15" t="s">
         <v>28</v>
       </c>
       <c r="C35" s="2" t="s">
@@ -1357,8 +1386,8 @@
       <c r="K35" s="1"/>
     </row>
     <row r="36" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="9"/>
-      <c r="B36" s="9"/>
+      <c r="A36" s="15"/>
+      <c r="B36" s="15"/>
       <c r="C36" s="2" t="s">
         <v>30</v>
       </c>
@@ -1372,8 +1401,8 @@
       <c r="K36" s="1"/>
     </row>
     <row r="37" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="9"/>
-      <c r="B37" s="9"/>
+      <c r="A37" s="15"/>
+      <c r="B37" s="15"/>
       <c r="C37" s="2" t="s">
         <v>0</v>
       </c>
@@ -1387,10 +1416,10 @@
       <c r="K37" s="1"/>
     </row>
     <row r="38" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="9" t="s">
+      <c r="A38" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="B38" s="9" t="s">
+      <c r="B38" s="15" t="s">
         <v>5</v>
       </c>
       <c r="C38" s="2" t="s">
@@ -1406,8 +1435,8 @@
       <c r="K38" s="1"/>
     </row>
     <row r="39" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="9"/>
-      <c r="B39" s="9"/>
+      <c r="A39" s="15"/>
+      <c r="B39" s="15"/>
       <c r="C39" s="2" t="s">
         <v>7</v>
       </c>
@@ -1421,8 +1450,8 @@
       <c r="K39" s="1"/>
     </row>
     <row r="40" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="9"/>
-      <c r="B40" s="9"/>
+      <c r="A40" s="15"/>
+      <c r="B40" s="15"/>
       <c r="C40" s="2" t="s">
         <v>9</v>
       </c>
@@ -1436,7 +1465,7 @@
       <c r="K40" s="1"/>
     </row>
     <row r="41" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="9"/>
+      <c r="A41" s="15"/>
       <c r="B41" s="3" t="s">
         <v>34</v>
       </c>
@@ -1453,8 +1482,8 @@
       <c r="K41" s="1"/>
     </row>
     <row r="42" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="9"/>
-      <c r="B42" s="9" t="s">
+      <c r="A42" s="15"/>
+      <c r="B42" s="15" t="s">
         <v>6</v>
       </c>
       <c r="C42" s="2" t="s">
@@ -1470,8 +1499,8 @@
       <c r="K42" s="1"/>
     </row>
     <row r="43" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="9"/>
-      <c r="B43" s="9"/>
+      <c r="A43" s="15"/>
+      <c r="B43" s="15"/>
       <c r="C43" s="2" t="s">
         <v>32</v>
       </c>
@@ -1485,8 +1514,8 @@
       <c r="K43" s="1"/>
     </row>
     <row r="44" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="9"/>
-      <c r="B44" s="9" t="s">
+      <c r="A44" s="15"/>
+      <c r="B44" s="15" t="s">
         <v>28</v>
       </c>
       <c r="C44" s="2" t="s">
@@ -1502,8 +1531,8 @@
       <c r="K44" s="1"/>
     </row>
     <row r="45" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="9"/>
-      <c r="B45" s="9"/>
+      <c r="A45" s="15"/>
+      <c r="B45" s="15"/>
       <c r="C45" s="2" t="s">
         <v>30</v>
       </c>
@@ -1517,8 +1546,8 @@
       <c r="K45" s="1"/>
     </row>
     <row r="46" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="9"/>
-      <c r="B46" s="9"/>
+      <c r="A46" s="15"/>
+      <c r="B46" s="15"/>
       <c r="C46" s="2" t="s">
         <v>0</v>
       </c>
@@ -1532,29 +1561,20 @@
       <c r="K46" s="1"/>
     </row>
     <row r="47" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="10"/>
-      <c r="B47" s="11"/>
-      <c r="C47" s="11"/>
-      <c r="D47" s="11"/>
-      <c r="E47" s="11"/>
-      <c r="F47" s="11"/>
-      <c r="G47" s="11"/>
-      <c r="H47" s="11"/>
-      <c r="I47" s="11"/>
-      <c r="J47" s="11"/>
-      <c r="K47" s="12"/>
+      <c r="A47" s="9"/>
+      <c r="B47" s="10"/>
+      <c r="C47" s="10"/>
+      <c r="D47" s="10"/>
+      <c r="E47" s="10"/>
+      <c r="F47" s="10"/>
+      <c r="G47" s="10"/>
+      <c r="H47" s="10"/>
+      <c r="I47" s="10"/>
+      <c r="J47" s="10"/>
+      <c r="K47" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="A47:K47"/>
-    <mergeCell ref="B7:B9"/>
-    <mergeCell ref="B35:B37"/>
-    <mergeCell ref="B38:B40"/>
-    <mergeCell ref="B42:B43"/>
-    <mergeCell ref="B44:B46"/>
-    <mergeCell ref="B30:B31"/>
-    <mergeCell ref="B33:B34"/>
-    <mergeCell ref="A38:A46"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="B19:B20"/>
     <mergeCell ref="B21:B23"/>
@@ -1567,6 +1587,15 @@
     <mergeCell ref="B5:B6"/>
     <mergeCell ref="B10:B12"/>
     <mergeCell ref="B13:B15"/>
+    <mergeCell ref="A47:K47"/>
+    <mergeCell ref="B7:B9"/>
+    <mergeCell ref="B35:B37"/>
+    <mergeCell ref="B38:B40"/>
+    <mergeCell ref="B42:B43"/>
+    <mergeCell ref="B44:B46"/>
+    <mergeCell ref="B30:B31"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="A38:A46"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1592,11 +1621,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
       <c r="D1" s="7" t="s">
         <v>38</v>
       </c>
@@ -1623,10 +1652,10 @@
       </c>
     </row>
     <row r="2" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="15" t="s">
         <v>5</v>
       </c>
       <c r="C2" s="2" t="s">
@@ -1642,8 +1671,8 @@
       <c r="K2" s="1"/>
     </row>
     <row r="3" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="9"/>
-      <c r="B3" s="9"/>
+      <c r="A3" s="15"/>
+      <c r="B3" s="15"/>
       <c r="C3" s="2" t="s">
         <v>7</v>
       </c>
@@ -1657,8 +1686,8 @@
       <c r="K3" s="1"/>
     </row>
     <row r="4" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="9"/>
-      <c r="B4" s="9"/>
+      <c r="A4" s="15"/>
+      <c r="B4" s="15"/>
       <c r="C4" s="2" t="s">
         <v>9</v>
       </c>
@@ -1672,8 +1701,8 @@
       <c r="K4" s="1"/>
     </row>
     <row r="5" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="9"/>
-      <c r="B5" s="9" t="s">
+      <c r="A5" s="15"/>
+      <c r="B5" s="15" t="s">
         <v>6</v>
       </c>
       <c r="C5" s="2" t="s">
@@ -1689,8 +1718,8 @@
       <c r="K5" s="1"/>
     </row>
     <row r="6" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="9"/>
-      <c r="B6" s="9"/>
+      <c r="A6" s="15"/>
+      <c r="B6" s="15"/>
       <c r="C6" s="2" t="s">
         <v>11</v>
       </c>
@@ -1704,8 +1733,8 @@
       <c r="K6" s="1"/>
     </row>
     <row r="7" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="9"/>
-      <c r="B7" s="13" t="s">
+      <c r="A7" s="15"/>
+      <c r="B7" s="12" t="s">
         <v>13</v>
       </c>
       <c r="C7" s="2" t="s">
@@ -1721,8 +1750,8 @@
       <c r="K7" s="1"/>
     </row>
     <row r="8" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="9"/>
-      <c r="B8" s="14"/>
+      <c r="A8" s="15"/>
+      <c r="B8" s="13"/>
       <c r="C8" s="2" t="s">
         <v>47</v>
       </c>
@@ -1736,8 +1765,8 @@
       <c r="K8" s="1"/>
     </row>
     <row r="9" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="9"/>
-      <c r="B9" s="15"/>
+      <c r="A9" s="15"/>
+      <c r="B9" s="14"/>
       <c r="C9" s="2" t="s">
         <v>46</v>
       </c>
@@ -1751,8 +1780,8 @@
       <c r="K9" s="1"/>
     </row>
     <row r="10" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="9"/>
-      <c r="B10" s="9" t="s">
+      <c r="A10" s="15"/>
+      <c r="B10" s="15" t="s">
         <v>14</v>
       </c>
       <c r="C10" s="2" t="s">
@@ -1768,8 +1797,8 @@
       <c r="K10" s="1"/>
     </row>
     <row r="11" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="9"/>
-      <c r="B11" s="9"/>
+      <c r="A11" s="15"/>
+      <c r="B11" s="15"/>
       <c r="C11" s="2" t="s">
         <v>16</v>
       </c>
@@ -1783,8 +1812,8 @@
       <c r="K11" s="1"/>
     </row>
     <row r="12" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="9"/>
-      <c r="B12" s="9"/>
+      <c r="A12" s="15"/>
+      <c r="B12" s="15"/>
       <c r="C12" s="2" t="s">
         <v>17</v>
       </c>
@@ -1798,10 +1827,10 @@
       <c r="K12" s="1"/>
     </row>
     <row r="13" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="9" t="s">
+      <c r="A13" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="B13" s="9" t="s">
+      <c r="B13" s="15" t="s">
         <v>5</v>
       </c>
       <c r="C13" s="2" t="s">
@@ -1817,8 +1846,8 @@
       <c r="K13" s="1"/>
     </row>
     <row r="14" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="9"/>
-      <c r="B14" s="9"/>
+      <c r="A14" s="15"/>
+      <c r="B14" s="15"/>
       <c r="C14" s="2" t="s">
         <v>7</v>
       </c>
@@ -1832,8 +1861,8 @@
       <c r="K14" s="1"/>
     </row>
     <row r="15" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="9"/>
-      <c r="B15" s="9"/>
+      <c r="A15" s="15"/>
+      <c r="B15" s="15"/>
       <c r="C15" s="2" t="s">
         <v>9</v>
       </c>
@@ -1847,7 +1876,7 @@
       <c r="K15" s="1"/>
     </row>
     <row r="16" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="9"/>
+      <c r="A16" s="15"/>
       <c r="B16" s="3" t="s">
         <v>34</v>
       </c>
@@ -1864,7 +1893,7 @@
       <c r="K16" s="1"/>
     </row>
     <row r="17" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="9"/>
+      <c r="A17" s="15"/>
       <c r="B17" s="3" t="s">
         <v>6</v>
       </c>
@@ -1881,7 +1910,7 @@
       <c r="K17" s="1"/>
     </row>
     <row r="18" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="9"/>
+      <c r="A18" s="15"/>
       <c r="B18" s="3" t="s">
         <v>18</v>
       </c>
@@ -1898,8 +1927,8 @@
       <c r="K18" s="1"/>
     </row>
     <row r="19" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="9"/>
-      <c r="B19" s="9" t="s">
+      <c r="A19" s="15"/>
+      <c r="B19" s="15" t="s">
         <v>20</v>
       </c>
       <c r="C19" s="2" t="s">
@@ -1915,8 +1944,8 @@
       <c r="K19" s="1"/>
     </row>
     <row r="20" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="9"/>
-      <c r="B20" s="9"/>
+      <c r="A20" s="15"/>
+      <c r="B20" s="15"/>
       <c r="C20" s="2" t="s">
         <v>22</v>
       </c>
@@ -1930,8 +1959,8 @@
       <c r="K20" s="1"/>
     </row>
     <row r="21" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="9"/>
-      <c r="B21" s="9" t="s">
+      <c r="A21" s="15"/>
+      <c r="B21" s="15" t="s">
         <v>28</v>
       </c>
       <c r="C21" s="2" t="s">
@@ -1947,8 +1976,8 @@
       <c r="K21" s="1"/>
     </row>
     <row r="22" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="9"/>
-      <c r="B22" s="9"/>
+      <c r="A22" s="15"/>
+      <c r="B22" s="15"/>
       <c r="C22" s="2" t="s">
         <v>30</v>
       </c>
@@ -1962,8 +1991,8 @@
       <c r="K22" s="1"/>
     </row>
     <row r="23" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="9"/>
-      <c r="B23" s="9"/>
+      <c r="A23" s="15"/>
+      <c r="B23" s="15"/>
       <c r="C23" s="2" t="s">
         <v>0</v>
       </c>
@@ -1977,10 +2006,10 @@
       <c r="K23" s="1"/>
     </row>
     <row r="24" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="9" t="s">
+      <c r="A24" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="B24" s="9" t="s">
+      <c r="B24" s="15" t="s">
         <v>5</v>
       </c>
       <c r="C24" s="2" t="s">
@@ -1996,8 +2025,8 @@
       <c r="K24" s="1"/>
     </row>
     <row r="25" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="9"/>
-      <c r="B25" s="9"/>
+      <c r="A25" s="15"/>
+      <c r="B25" s="15"/>
       <c r="C25" s="2" t="s">
         <v>7</v>
       </c>
@@ -2011,8 +2040,8 @@
       <c r="K25" s="1"/>
     </row>
     <row r="26" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="9"/>
-      <c r="B26" s="9"/>
+      <c r="A26" s="15"/>
+      <c r="B26" s="15"/>
       <c r="C26" s="2" t="s">
         <v>9</v>
       </c>
@@ -2026,7 +2055,7 @@
       <c r="K26" s="1"/>
     </row>
     <row r="27" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="9"/>
+      <c r="A27" s="15"/>
       <c r="B27" s="3" t="s">
         <v>34</v>
       </c>
@@ -2043,8 +2072,8 @@
       <c r="K27" s="1"/>
     </row>
     <row r="28" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="9"/>
-      <c r="B28" s="9" t="s">
+      <c r="A28" s="15"/>
+      <c r="B28" s="15" t="s">
         <v>6</v>
       </c>
       <c r="C28" s="2" t="s">
@@ -2060,8 +2089,8 @@
       <c r="K28" s="1"/>
     </row>
     <row r="29" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="9"/>
-      <c r="B29" s="9"/>
+      <c r="A29" s="15"/>
+      <c r="B29" s="15"/>
       <c r="C29" s="2" t="s">
         <v>31</v>
       </c>
@@ -2075,8 +2104,8 @@
       <c r="K29" s="1"/>
     </row>
     <row r="30" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="9"/>
-      <c r="B30" s="9" t="s">
+      <c r="A30" s="15"/>
+      <c r="B30" s="15" t="s">
         <v>23</v>
       </c>
       <c r="C30" s="2" t="s">
@@ -2092,8 +2121,8 @@
       <c r="K30" s="1"/>
     </row>
     <row r="31" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="9"/>
-      <c r="B31" s="9"/>
+      <c r="A31" s="15"/>
+      <c r="B31" s="15"/>
       <c r="C31" s="2" t="s">
         <v>37</v>
       </c>
@@ -2107,7 +2136,7 @@
       <c r="K31" s="1"/>
     </row>
     <row r="32" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="9"/>
+      <c r="A32" s="15"/>
       <c r="B32" s="3" t="s">
         <v>24</v>
       </c>
@@ -2124,8 +2153,8 @@
       <c r="K32" s="1"/>
     </row>
     <row r="33" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="9"/>
-      <c r="B33" s="9" t="s">
+      <c r="A33" s="15"/>
+      <c r="B33" s="15" t="s">
         <v>27</v>
       </c>
       <c r="C33" s="2" t="s">
@@ -2141,8 +2170,8 @@
       <c r="K33" s="1"/>
     </row>
     <row r="34" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="9"/>
-      <c r="B34" s="9"/>
+      <c r="A34" s="15"/>
+      <c r="B34" s="15"/>
       <c r="C34" s="2" t="s">
         <v>26</v>
       </c>
@@ -2156,8 +2185,8 @@
       <c r="K34" s="1"/>
     </row>
     <row r="35" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="9"/>
-      <c r="B35" s="9" t="s">
+      <c r="A35" s="15"/>
+      <c r="B35" s="15" t="s">
         <v>28</v>
       </c>
       <c r="C35" s="2" t="s">
@@ -2173,8 +2202,8 @@
       <c r="K35" s="1"/>
     </row>
     <row r="36" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="9"/>
-      <c r="B36" s="9"/>
+      <c r="A36" s="15"/>
+      <c r="B36" s="15"/>
       <c r="C36" s="2" t="s">
         <v>30</v>
       </c>
@@ -2188,8 +2217,8 @@
       <c r="K36" s="1"/>
     </row>
     <row r="37" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="9"/>
-      <c r="B37" s="9"/>
+      <c r="A37" s="15"/>
+      <c r="B37" s="15"/>
       <c r="C37" s="2" t="s">
         <v>0</v>
       </c>
@@ -2203,10 +2232,10 @@
       <c r="K37" s="1"/>
     </row>
     <row r="38" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="9" t="s">
+      <c r="A38" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="B38" s="9" t="s">
+      <c r="B38" s="15" t="s">
         <v>5</v>
       </c>
       <c r="C38" s="2" t="s">
@@ -2222,8 +2251,8 @@
       <c r="K38" s="1"/>
     </row>
     <row r="39" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="9"/>
-      <c r="B39" s="9"/>
+      <c r="A39" s="15"/>
+      <c r="B39" s="15"/>
       <c r="C39" s="2" t="s">
         <v>7</v>
       </c>
@@ -2237,8 +2266,8 @@
       <c r="K39" s="1"/>
     </row>
     <row r="40" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="9"/>
-      <c r="B40" s="9"/>
+      <c r="A40" s="15"/>
+      <c r="B40" s="15"/>
       <c r="C40" s="2" t="s">
         <v>9</v>
       </c>
@@ -2252,7 +2281,7 @@
       <c r="K40" s="1"/>
     </row>
     <row r="41" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="9"/>
+      <c r="A41" s="15"/>
       <c r="B41" s="3" t="s">
         <v>34</v>
       </c>
@@ -2269,8 +2298,8 @@
       <c r="K41" s="1"/>
     </row>
     <row r="42" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="9"/>
-      <c r="B42" s="9" t="s">
+      <c r="A42" s="15"/>
+      <c r="B42" s="15" t="s">
         <v>6</v>
       </c>
       <c r="C42" s="2" t="s">
@@ -2286,8 +2315,8 @@
       <c r="K42" s="1"/>
     </row>
     <row r="43" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="9"/>
-      <c r="B43" s="9"/>
+      <c r="A43" s="15"/>
+      <c r="B43" s="15"/>
       <c r="C43" s="2" t="s">
         <v>32</v>
       </c>
@@ -2301,8 +2330,8 @@
       <c r="K43" s="1"/>
     </row>
     <row r="44" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="9"/>
-      <c r="B44" s="9" t="s">
+      <c r="A44" s="15"/>
+      <c r="B44" s="15" t="s">
         <v>28</v>
       </c>
       <c r="C44" s="2" t="s">
@@ -2318,8 +2347,8 @@
       <c r="K44" s="1"/>
     </row>
     <row r="45" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="9"/>
-      <c r="B45" s="9"/>
+      <c r="A45" s="15"/>
+      <c r="B45" s="15"/>
       <c r="C45" s="2" t="s">
         <v>30</v>
       </c>
@@ -2333,8 +2362,8 @@
       <c r="K45" s="1"/>
     </row>
     <row r="46" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="9"/>
-      <c r="B46" s="9"/>
+      <c r="A46" s="15"/>
+      <c r="B46" s="15"/>
       <c r="C46" s="2" t="s">
         <v>0</v>
       </c>
@@ -2348,17 +2377,833 @@
       <c r="K46" s="1"/>
     </row>
     <row r="47" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="10"/>
-      <c r="B47" s="11"/>
-      <c r="C47" s="11"/>
-      <c r="D47" s="11"/>
-      <c r="E47" s="11"/>
-      <c r="F47" s="11"/>
-      <c r="G47" s="11"/>
-      <c r="H47" s="11"/>
-      <c r="I47" s="11"/>
-      <c r="J47" s="11"/>
-      <c r="K47" s="12"/>
+      <c r="A47" s="9"/>
+      <c r="B47" s="10"/>
+      <c r="C47" s="10"/>
+      <c r="D47" s="10"/>
+      <c r="E47" s="10"/>
+      <c r="F47" s="10"/>
+      <c r="G47" s="10"/>
+      <c r="H47" s="10"/>
+      <c r="I47" s="10"/>
+      <c r="J47" s="10"/>
+      <c r="K47" s="11"/>
+    </row>
+  </sheetData>
+  <mergeCells count="21">
+    <mergeCell ref="A38:A46"/>
+    <mergeCell ref="B38:B40"/>
+    <mergeCell ref="B42:B43"/>
+    <mergeCell ref="B44:B46"/>
+    <mergeCell ref="A47:K47"/>
+    <mergeCell ref="A13:A23"/>
+    <mergeCell ref="B13:B15"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="B21:B23"/>
+    <mergeCell ref="A24:A37"/>
+    <mergeCell ref="B24:B26"/>
+    <mergeCell ref="B28:B29"/>
+    <mergeCell ref="B30:B31"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="B35:B37"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A2:A12"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="B7:B9"/>
+    <mergeCell ref="B10:B12"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{325B9A6C-03E7-4340-BF0C-6D03BAC598FD}">
+  <dimension ref="A1:K47"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I6" sqref="I6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="4.375" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.125" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.625" style="4" customWidth="1"/>
+    <col min="4" max="10" width="5.625" style="8" customWidth="1"/>
+    <col min="11" max="11" width="18.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="H1" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="I1" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="J1" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="K1" s="6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
+      <c r="J2" s="7"/>
+      <c r="K2" s="1"/>
+    </row>
+    <row r="3" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="15"/>
+      <c r="B3" s="15"/>
+      <c r="C3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="7"/>
+      <c r="K3" s="1"/>
+    </row>
+    <row r="4" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="15"/>
+      <c r="B4" s="15"/>
+      <c r="C4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="7"/>
+      <c r="J4" s="7"/>
+      <c r="K4" s="1"/>
+    </row>
+    <row r="5" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="15"/>
+      <c r="B5" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="7"/>
+      <c r="K5" s="1"/>
+    </row>
+    <row r="6" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="15"/>
+      <c r="B6" s="15"/>
+      <c r="C6" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="7"/>
+      <c r="K6" s="1"/>
+    </row>
+    <row r="7" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="15"/>
+      <c r="B7" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="7"/>
+      <c r="J7" s="7"/>
+      <c r="K7" s="1"/>
+    </row>
+    <row r="8" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="15"/>
+      <c r="B8" s="13"/>
+      <c r="C8" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="7"/>
+      <c r="J8" s="7"/>
+      <c r="K8" s="1"/>
+    </row>
+    <row r="9" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="15"/>
+      <c r="B9" s="14"/>
+      <c r="C9" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="7"/>
+      <c r="J9" s="7"/>
+      <c r="K9" s="1"/>
+    </row>
+    <row r="10" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="15"/>
+      <c r="B10" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="7"/>
+      <c r="J10" s="7"/>
+      <c r="K10" s="1"/>
+    </row>
+    <row r="11" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="15"/>
+      <c r="B11" s="15"/>
+      <c r="C11" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="7"/>
+      <c r="I11" s="7"/>
+      <c r="J11" s="7"/>
+      <c r="K11" s="1"/>
+    </row>
+    <row r="12" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="15"/>
+      <c r="B12" s="15"/>
+      <c r="C12" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="7"/>
+      <c r="I12" s="7"/>
+      <c r="J12" s="7"/>
+      <c r="K12" s="1"/>
+    </row>
+    <row r="13" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="B13" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7"/>
+      <c r="I13" s="7"/>
+      <c r="J13" s="7"/>
+      <c r="K13" s="1"/>
+    </row>
+    <row r="14" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="15"/>
+      <c r="B14" s="15"/>
+      <c r="C14" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D14" s="7"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="7"/>
+      <c r="I14" s="7"/>
+      <c r="J14" s="7"/>
+      <c r="K14" s="1"/>
+    </row>
+    <row r="15" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="15"/>
+      <c r="B15" s="15"/>
+      <c r="C15" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="7"/>
+      <c r="I15" s="7"/>
+      <c r="J15" s="7"/>
+      <c r="K15" s="1"/>
+    </row>
+    <row r="16" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="15"/>
+      <c r="B16" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D16" s="7"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="7"/>
+      <c r="I16" s="7"/>
+      <c r="J16" s="7"/>
+      <c r="K16" s="1"/>
+    </row>
+    <row r="17" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="15"/>
+      <c r="B17" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D17" s="7"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="7"/>
+      <c r="H17" s="7"/>
+      <c r="I17" s="7"/>
+      <c r="J17" s="7"/>
+      <c r="K17" s="1"/>
+    </row>
+    <row r="18" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="15"/>
+      <c r="B18" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D18" s="7"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="7"/>
+      <c r="H18" s="7"/>
+      <c r="I18" s="7"/>
+      <c r="J18" s="7"/>
+      <c r="K18" s="1"/>
+    </row>
+    <row r="19" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="15"/>
+      <c r="B19" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D19" s="7"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="7"/>
+      <c r="G19" s="7"/>
+      <c r="H19" s="7"/>
+      <c r="I19" s="7"/>
+      <c r="J19" s="7"/>
+      <c r="K19" s="1"/>
+    </row>
+    <row r="20" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="15"/>
+      <c r="B20" s="15"/>
+      <c r="C20" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D20" s="7"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="7"/>
+      <c r="G20" s="7"/>
+      <c r="H20" s="7"/>
+      <c r="I20" s="7"/>
+      <c r="J20" s="7"/>
+      <c r="K20" s="1"/>
+    </row>
+    <row r="21" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="15"/>
+      <c r="B21" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D21" s="7"/>
+      <c r="E21" s="7"/>
+      <c r="F21" s="7"/>
+      <c r="G21" s="7"/>
+      <c r="H21" s="7"/>
+      <c r="I21" s="7"/>
+      <c r="J21" s="7"/>
+      <c r="K21" s="1"/>
+    </row>
+    <row r="22" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="15"/>
+      <c r="B22" s="15"/>
+      <c r="C22" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D22" s="7"/>
+      <c r="E22" s="7"/>
+      <c r="F22" s="7"/>
+      <c r="G22" s="7"/>
+      <c r="H22" s="7"/>
+      <c r="I22" s="7"/>
+      <c r="J22" s="7"/>
+      <c r="K22" s="1"/>
+    </row>
+    <row r="23" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="15"/>
+      <c r="B23" s="15"/>
+      <c r="C23" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D23" s="7"/>
+      <c r="E23" s="7"/>
+      <c r="F23" s="7"/>
+      <c r="G23" s="7"/>
+      <c r="H23" s="7"/>
+      <c r="I23" s="7"/>
+      <c r="J23" s="7"/>
+      <c r="K23" s="1"/>
+    </row>
+    <row r="24" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="B24" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D24" s="7"/>
+      <c r="E24" s="7"/>
+      <c r="F24" s="7"/>
+      <c r="G24" s="7"/>
+      <c r="H24" s="7"/>
+      <c r="I24" s="7"/>
+      <c r="J24" s="7"/>
+      <c r="K24" s="1"/>
+    </row>
+    <row r="25" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="15"/>
+      <c r="B25" s="15"/>
+      <c r="C25" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D25" s="7"/>
+      <c r="E25" s="7"/>
+      <c r="F25" s="7"/>
+      <c r="G25" s="7"/>
+      <c r="H25" s="7"/>
+      <c r="I25" s="7"/>
+      <c r="J25" s="7"/>
+      <c r="K25" s="1"/>
+    </row>
+    <row r="26" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="15"/>
+      <c r="B26" s="15"/>
+      <c r="C26" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D26" s="7"/>
+      <c r="E26" s="7"/>
+      <c r="F26" s="7"/>
+      <c r="G26" s="7"/>
+      <c r="H26" s="7"/>
+      <c r="I26" s="7"/>
+      <c r="J26" s="7"/>
+      <c r="K26" s="1"/>
+    </row>
+    <row r="27" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="15"/>
+      <c r="B27" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D27" s="7"/>
+      <c r="E27" s="7"/>
+      <c r="F27" s="7"/>
+      <c r="G27" s="7"/>
+      <c r="H27" s="7"/>
+      <c r="I27" s="7"/>
+      <c r="J27" s="7"/>
+      <c r="K27" s="1"/>
+    </row>
+    <row r="28" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="15"/>
+      <c r="B28" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D28" s="7"/>
+      <c r="E28" s="7"/>
+      <c r="F28" s="7"/>
+      <c r="G28" s="7"/>
+      <c r="H28" s="7"/>
+      <c r="I28" s="7"/>
+      <c r="J28" s="7"/>
+      <c r="K28" s="1"/>
+    </row>
+    <row r="29" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="15"/>
+      <c r="B29" s="15"/>
+      <c r="C29" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D29" s="7"/>
+      <c r="E29" s="7"/>
+      <c r="F29" s="7"/>
+      <c r="G29" s="7"/>
+      <c r="H29" s="7"/>
+      <c r="I29" s="7"/>
+      <c r="J29" s="7"/>
+      <c r="K29" s="1"/>
+    </row>
+    <row r="30" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="15"/>
+      <c r="B30" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D30" s="7"/>
+      <c r="E30" s="7"/>
+      <c r="F30" s="7"/>
+      <c r="G30" s="7"/>
+      <c r="H30" s="7"/>
+      <c r="I30" s="7"/>
+      <c r="J30" s="7"/>
+      <c r="K30" s="1"/>
+    </row>
+    <row r="31" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="15"/>
+      <c r="B31" s="15"/>
+      <c r="C31" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D31" s="7"/>
+      <c r="E31" s="7"/>
+      <c r="F31" s="7"/>
+      <c r="G31" s="7"/>
+      <c r="H31" s="7"/>
+      <c r="I31" s="7"/>
+      <c r="J31" s="7"/>
+      <c r="K31" s="1"/>
+    </row>
+    <row r="32" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="15"/>
+      <c r="B32" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D32" s="7"/>
+      <c r="E32" s="7"/>
+      <c r="F32" s="7"/>
+      <c r="G32" s="7"/>
+      <c r="H32" s="7"/>
+      <c r="I32" s="7"/>
+      <c r="J32" s="7"/>
+      <c r="K32" s="1"/>
+    </row>
+    <row r="33" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="15"/>
+      <c r="B33" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D33" s="7"/>
+      <c r="E33" s="7"/>
+      <c r="F33" s="7"/>
+      <c r="G33" s="7"/>
+      <c r="H33" s="7"/>
+      <c r="I33" s="7"/>
+      <c r="J33" s="7"/>
+      <c r="K33" s="1"/>
+    </row>
+    <row r="34" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="15"/>
+      <c r="B34" s="15"/>
+      <c r="C34" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D34" s="7"/>
+      <c r="E34" s="7"/>
+      <c r="F34" s="7"/>
+      <c r="G34" s="7"/>
+      <c r="H34" s="7"/>
+      <c r="I34" s="7"/>
+      <c r="J34" s="7"/>
+      <c r="K34" s="1"/>
+    </row>
+    <row r="35" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="15"/>
+      <c r="B35" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D35" s="7"/>
+      <c r="E35" s="7"/>
+      <c r="F35" s="7"/>
+      <c r="G35" s="7"/>
+      <c r="H35" s="7"/>
+      <c r="I35" s="7"/>
+      <c r="J35" s="7"/>
+      <c r="K35" s="1"/>
+    </row>
+    <row r="36" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="15"/>
+      <c r="B36" s="15"/>
+      <c r="C36" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D36" s="7"/>
+      <c r="E36" s="7"/>
+      <c r="F36" s="7"/>
+      <c r="G36" s="7"/>
+      <c r="H36" s="7"/>
+      <c r="I36" s="7"/>
+      <c r="J36" s="7"/>
+      <c r="K36" s="1"/>
+    </row>
+    <row r="37" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="15"/>
+      <c r="B37" s="15"/>
+      <c r="C37" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D37" s="7"/>
+      <c r="E37" s="7"/>
+      <c r="F37" s="7"/>
+      <c r="G37" s="7"/>
+      <c r="H37" s="7"/>
+      <c r="I37" s="7"/>
+      <c r="J37" s="7"/>
+      <c r="K37" s="1"/>
+    </row>
+    <row r="38" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="B38" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D38" s="7"/>
+      <c r="E38" s="7"/>
+      <c r="F38" s="7"/>
+      <c r="G38" s="7"/>
+      <c r="H38" s="7"/>
+      <c r="I38" s="7"/>
+      <c r="J38" s="7"/>
+      <c r="K38" s="1"/>
+    </row>
+    <row r="39" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="15"/>
+      <c r="B39" s="15"/>
+      <c r="C39" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D39" s="7"/>
+      <c r="E39" s="7"/>
+      <c r="F39" s="7"/>
+      <c r="G39" s="7"/>
+      <c r="H39" s="7"/>
+      <c r="I39" s="7"/>
+      <c r="J39" s="7"/>
+      <c r="K39" s="1"/>
+    </row>
+    <row r="40" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="15"/>
+      <c r="B40" s="15"/>
+      <c r="C40" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D40" s="7"/>
+      <c r="E40" s="7"/>
+      <c r="F40" s="7"/>
+      <c r="G40" s="7"/>
+      <c r="H40" s="7"/>
+      <c r="I40" s="7"/>
+      <c r="J40" s="7"/>
+      <c r="K40" s="1"/>
+    </row>
+    <row r="41" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="15"/>
+      <c r="B41" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D41" s="7"/>
+      <c r="E41" s="7"/>
+      <c r="F41" s="7"/>
+      <c r="G41" s="7"/>
+      <c r="H41" s="7"/>
+      <c r="I41" s="7"/>
+      <c r="J41" s="7"/>
+      <c r="K41" s="1"/>
+    </row>
+    <row r="42" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="15"/>
+      <c r="B42" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D42" s="7"/>
+      <c r="E42" s="7"/>
+      <c r="F42" s="7"/>
+      <c r="G42" s="7"/>
+      <c r="H42" s="7"/>
+      <c r="I42" s="7"/>
+      <c r="J42" s="7"/>
+      <c r="K42" s="1"/>
+    </row>
+    <row r="43" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="15"/>
+      <c r="B43" s="15"/>
+      <c r="C43" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D43" s="7"/>
+      <c r="E43" s="7"/>
+      <c r="F43" s="7"/>
+      <c r="G43" s="7"/>
+      <c r="H43" s="7"/>
+      <c r="I43" s="7"/>
+      <c r="J43" s="7"/>
+      <c r="K43" s="1"/>
+    </row>
+    <row r="44" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="15"/>
+      <c r="B44" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D44" s="7"/>
+      <c r="E44" s="7"/>
+      <c r="F44" s="7"/>
+      <c r="G44" s="7"/>
+      <c r="H44" s="7"/>
+      <c r="I44" s="7"/>
+      <c r="J44" s="7"/>
+      <c r="K44" s="1"/>
+    </row>
+    <row r="45" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="15"/>
+      <c r="B45" s="15"/>
+      <c r="C45" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D45" s="7"/>
+      <c r="E45" s="7"/>
+      <c r="F45" s="7"/>
+      <c r="G45" s="7"/>
+      <c r="H45" s="7"/>
+      <c r="I45" s="7"/>
+      <c r="J45" s="7"/>
+      <c r="K45" s="1"/>
+    </row>
+    <row r="46" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="15"/>
+      <c r="B46" s="15"/>
+      <c r="C46" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D46" s="7"/>
+      <c r="E46" s="7"/>
+      <c r="F46" s="7"/>
+      <c r="G46" s="7"/>
+      <c r="H46" s="7"/>
+      <c r="I46" s="7"/>
+      <c r="J46" s="7"/>
+      <c r="K46" s="1"/>
+    </row>
+    <row r="47" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="9"/>
+      <c r="B47" s="10"/>
+      <c r="C47" s="10"/>
+      <c r="D47" s="10"/>
+      <c r="E47" s="10"/>
+      <c r="F47" s="10"/>
+      <c r="G47" s="10"/>
+      <c r="H47" s="10"/>
+      <c r="I47" s="10"/>
+      <c r="J47" s="10"/>
+      <c r="K47" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="21">
@@ -2390,12 +3235,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{325B9A6C-03E7-4340-BF0C-6D03BAC598FD}">
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{849A7B52-04E2-4507-8101-84449D702F83}">
   <dimension ref="A1:K47"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2408,41 +3253,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
       <c r="D1" s="7" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="E1" s="7" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="F1" s="7" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="G1" s="7" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="H1" s="7" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="I1" s="7" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="J1" s="7" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="K1" s="6" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="15" t="s">
         <v>5</v>
       </c>
       <c r="C2" s="2" t="s">
@@ -2458,8 +3303,8 @@
       <c r="K2" s="1"/>
     </row>
     <row r="3" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="9"/>
-      <c r="B3" s="9"/>
+      <c r="A3" s="15"/>
+      <c r="B3" s="15"/>
       <c r="C3" s="2" t="s">
         <v>7</v>
       </c>
@@ -2473,8 +3318,8 @@
       <c r="K3" s="1"/>
     </row>
     <row r="4" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="9"/>
-      <c r="B4" s="9"/>
+      <c r="A4" s="15"/>
+      <c r="B4" s="15"/>
       <c r="C4" s="2" t="s">
         <v>9</v>
       </c>
@@ -2488,8 +3333,8 @@
       <c r="K4" s="1"/>
     </row>
     <row r="5" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="9"/>
-      <c r="B5" s="9" t="s">
+      <c r="A5" s="15"/>
+      <c r="B5" s="15" t="s">
         <v>6</v>
       </c>
       <c r="C5" s="2" t="s">
@@ -2505,8 +3350,8 @@
       <c r="K5" s="1"/>
     </row>
     <row r="6" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="9"/>
-      <c r="B6" s="9"/>
+      <c r="A6" s="15"/>
+      <c r="B6" s="15"/>
       <c r="C6" s="2" t="s">
         <v>11</v>
       </c>
@@ -2520,8 +3365,8 @@
       <c r="K6" s="1"/>
     </row>
     <row r="7" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="9"/>
-      <c r="B7" s="13" t="s">
+      <c r="A7" s="15"/>
+      <c r="B7" s="12" t="s">
         <v>13</v>
       </c>
       <c r="C7" s="2" t="s">
@@ -2537,8 +3382,8 @@
       <c r="K7" s="1"/>
     </row>
     <row r="8" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="9"/>
-      <c r="B8" s="14"/>
+      <c r="A8" s="15"/>
+      <c r="B8" s="13"/>
       <c r="C8" s="2" t="s">
         <v>47</v>
       </c>
@@ -2552,8 +3397,8 @@
       <c r="K8" s="1"/>
     </row>
     <row r="9" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="9"/>
-      <c r="B9" s="15"/>
+      <c r="A9" s="15"/>
+      <c r="B9" s="14"/>
       <c r="C9" s="2" t="s">
         <v>46</v>
       </c>
@@ -2567,8 +3412,8 @@
       <c r="K9" s="1"/>
     </row>
     <row r="10" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="9"/>
-      <c r="B10" s="9" t="s">
+      <c r="A10" s="15"/>
+      <c r="B10" s="15" t="s">
         <v>14</v>
       </c>
       <c r="C10" s="2" t="s">
@@ -2584,8 +3429,8 @@
       <c r="K10" s="1"/>
     </row>
     <row r="11" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="9"/>
-      <c r="B11" s="9"/>
+      <c r="A11" s="15"/>
+      <c r="B11" s="15"/>
       <c r="C11" s="2" t="s">
         <v>16</v>
       </c>
@@ -2599,8 +3444,8 @@
       <c r="K11" s="1"/>
     </row>
     <row r="12" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="9"/>
-      <c r="B12" s="9"/>
+      <c r="A12" s="15"/>
+      <c r="B12" s="15"/>
       <c r="C12" s="2" t="s">
         <v>17</v>
       </c>
@@ -2614,10 +3459,10 @@
       <c r="K12" s="1"/>
     </row>
     <row r="13" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="9" t="s">
+      <c r="A13" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="B13" s="9" t="s">
+      <c r="B13" s="15" t="s">
         <v>5</v>
       </c>
       <c r="C13" s="2" t="s">
@@ -2633,8 +3478,8 @@
       <c r="K13" s="1"/>
     </row>
     <row r="14" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="9"/>
-      <c r="B14" s="9"/>
+      <c r="A14" s="15"/>
+      <c r="B14" s="15"/>
       <c r="C14" s="2" t="s">
         <v>7</v>
       </c>
@@ -2648,8 +3493,8 @@
       <c r="K14" s="1"/>
     </row>
     <row r="15" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="9"/>
-      <c r="B15" s="9"/>
+      <c r="A15" s="15"/>
+      <c r="B15" s="15"/>
       <c r="C15" s="2" t="s">
         <v>9</v>
       </c>
@@ -2663,7 +3508,7 @@
       <c r="K15" s="1"/>
     </row>
     <row r="16" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="9"/>
+      <c r="A16" s="15"/>
       <c r="B16" s="3" t="s">
         <v>34</v>
       </c>
@@ -2680,7 +3525,7 @@
       <c r="K16" s="1"/>
     </row>
     <row r="17" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="9"/>
+      <c r="A17" s="15"/>
       <c r="B17" s="3" t="s">
         <v>6</v>
       </c>
@@ -2697,7 +3542,7 @@
       <c r="K17" s="1"/>
     </row>
     <row r="18" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="9"/>
+      <c r="A18" s="15"/>
       <c r="B18" s="3" t="s">
         <v>18</v>
       </c>
@@ -2714,8 +3559,8 @@
       <c r="K18" s="1"/>
     </row>
     <row r="19" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="9"/>
-      <c r="B19" s="9" t="s">
+      <c r="A19" s="15"/>
+      <c r="B19" s="15" t="s">
         <v>20</v>
       </c>
       <c r="C19" s="2" t="s">
@@ -2731,8 +3576,8 @@
       <c r="K19" s="1"/>
     </row>
     <row r="20" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="9"/>
-      <c r="B20" s="9"/>
+      <c r="A20" s="15"/>
+      <c r="B20" s="15"/>
       <c r="C20" s="2" t="s">
         <v>22</v>
       </c>
@@ -2746,8 +3591,8 @@
       <c r="K20" s="1"/>
     </row>
     <row r="21" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="9"/>
-      <c r="B21" s="9" t="s">
+      <c r="A21" s="15"/>
+      <c r="B21" s="15" t="s">
         <v>28</v>
       </c>
       <c r="C21" s="2" t="s">
@@ -2763,8 +3608,8 @@
       <c r="K21" s="1"/>
     </row>
     <row r="22" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="9"/>
-      <c r="B22" s="9"/>
+      <c r="A22" s="15"/>
+      <c r="B22" s="15"/>
       <c r="C22" s="2" t="s">
         <v>30</v>
       </c>
@@ -2778,8 +3623,8 @@
       <c r="K22" s="1"/>
     </row>
     <row r="23" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="9"/>
-      <c r="B23" s="9"/>
+      <c r="A23" s="15"/>
+      <c r="B23" s="15"/>
       <c r="C23" s="2" t="s">
         <v>0</v>
       </c>
@@ -2793,10 +3638,10 @@
       <c r="K23" s="1"/>
     </row>
     <row r="24" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="9" t="s">
+      <c r="A24" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="B24" s="9" t="s">
+      <c r="B24" s="15" t="s">
         <v>5</v>
       </c>
       <c r="C24" s="2" t="s">
@@ -2812,8 +3657,8 @@
       <c r="K24" s="1"/>
     </row>
     <row r="25" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="9"/>
-      <c r="B25" s="9"/>
+      <c r="A25" s="15"/>
+      <c r="B25" s="15"/>
       <c r="C25" s="2" t="s">
         <v>7</v>
       </c>
@@ -2827,8 +3672,8 @@
       <c r="K25" s="1"/>
     </row>
     <row r="26" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="9"/>
-      <c r="B26" s="9"/>
+      <c r="A26" s="15"/>
+      <c r="B26" s="15"/>
       <c r="C26" s="2" t="s">
         <v>9</v>
       </c>
@@ -2842,7 +3687,7 @@
       <c r="K26" s="1"/>
     </row>
     <row r="27" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="9"/>
+      <c r="A27" s="15"/>
       <c r="B27" s="3" t="s">
         <v>34</v>
       </c>
@@ -2859,8 +3704,8 @@
       <c r="K27" s="1"/>
     </row>
     <row r="28" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="9"/>
-      <c r="B28" s="9" t="s">
+      <c r="A28" s="15"/>
+      <c r="B28" s="15" t="s">
         <v>6</v>
       </c>
       <c r="C28" s="2" t="s">
@@ -2876,8 +3721,8 @@
       <c r="K28" s="1"/>
     </row>
     <row r="29" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="9"/>
-      <c r="B29" s="9"/>
+      <c r="A29" s="15"/>
+      <c r="B29" s="15"/>
       <c r="C29" s="2" t="s">
         <v>31</v>
       </c>
@@ -2891,8 +3736,8 @@
       <c r="K29" s="1"/>
     </row>
     <row r="30" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="9"/>
-      <c r="B30" s="9" t="s">
+      <c r="A30" s="15"/>
+      <c r="B30" s="15" t="s">
         <v>23</v>
       </c>
       <c r="C30" s="2" t="s">
@@ -2908,8 +3753,8 @@
       <c r="K30" s="1"/>
     </row>
     <row r="31" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="9"/>
-      <c r="B31" s="9"/>
+      <c r="A31" s="15"/>
+      <c r="B31" s="15"/>
       <c r="C31" s="2" t="s">
         <v>37</v>
       </c>
@@ -2923,7 +3768,7 @@
       <c r="K31" s="1"/>
     </row>
     <row r="32" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="9"/>
+      <c r="A32" s="15"/>
       <c r="B32" s="3" t="s">
         <v>24</v>
       </c>
@@ -2940,8 +3785,8 @@
       <c r="K32" s="1"/>
     </row>
     <row r="33" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="9"/>
-      <c r="B33" s="9" t="s">
+      <c r="A33" s="15"/>
+      <c r="B33" s="15" t="s">
         <v>27</v>
       </c>
       <c r="C33" s="2" t="s">
@@ -2957,8 +3802,8 @@
       <c r="K33" s="1"/>
     </row>
     <row r="34" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="9"/>
-      <c r="B34" s="9"/>
+      <c r="A34" s="15"/>
+      <c r="B34" s="15"/>
       <c r="C34" s="2" t="s">
         <v>26</v>
       </c>
@@ -2972,8 +3817,8 @@
       <c r="K34" s="1"/>
     </row>
     <row r="35" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="9"/>
-      <c r="B35" s="9" t="s">
+      <c r="A35" s="15"/>
+      <c r="B35" s="15" t="s">
         <v>28</v>
       </c>
       <c r="C35" s="2" t="s">
@@ -2989,8 +3834,8 @@
       <c r="K35" s="1"/>
     </row>
     <row r="36" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="9"/>
-      <c r="B36" s="9"/>
+      <c r="A36" s="15"/>
+      <c r="B36" s="15"/>
       <c r="C36" s="2" t="s">
         <v>30</v>
       </c>
@@ -3004,8 +3849,8 @@
       <c r="K36" s="1"/>
     </row>
     <row r="37" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="9"/>
-      <c r="B37" s="9"/>
+      <c r="A37" s="15"/>
+      <c r="B37" s="15"/>
       <c r="C37" s="2" t="s">
         <v>0</v>
       </c>
@@ -3019,10 +3864,10 @@
       <c r="K37" s="1"/>
     </row>
     <row r="38" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="9" t="s">
+      <c r="A38" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="B38" s="9" t="s">
+      <c r="B38" s="15" t="s">
         <v>5</v>
       </c>
       <c r="C38" s="2" t="s">
@@ -3038,8 +3883,8 @@
       <c r="K38" s="1"/>
     </row>
     <row r="39" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="9"/>
-      <c r="B39" s="9"/>
+      <c r="A39" s="15"/>
+      <c r="B39" s="15"/>
       <c r="C39" s="2" t="s">
         <v>7</v>
       </c>
@@ -3053,8 +3898,8 @@
       <c r="K39" s="1"/>
     </row>
     <row r="40" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="9"/>
-      <c r="B40" s="9"/>
+      <c r="A40" s="15"/>
+      <c r="B40" s="15"/>
       <c r="C40" s="2" t="s">
         <v>9</v>
       </c>
@@ -3068,7 +3913,7 @@
       <c r="K40" s="1"/>
     </row>
     <row r="41" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="9"/>
+      <c r="A41" s="15"/>
       <c r="B41" s="3" t="s">
         <v>34</v>
       </c>
@@ -3085,8 +3930,8 @@
       <c r="K41" s="1"/>
     </row>
     <row r="42" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="9"/>
-      <c r="B42" s="9" t="s">
+      <c r="A42" s="15"/>
+      <c r="B42" s="15" t="s">
         <v>6</v>
       </c>
       <c r="C42" s="2" t="s">
@@ -3102,8 +3947,8 @@
       <c r="K42" s="1"/>
     </row>
     <row r="43" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="9"/>
-      <c r="B43" s="9"/>
+      <c r="A43" s="15"/>
+      <c r="B43" s="15"/>
       <c r="C43" s="2" t="s">
         <v>32</v>
       </c>
@@ -3117,8 +3962,8 @@
       <c r="K43" s="1"/>
     </row>
     <row r="44" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="9"/>
-      <c r="B44" s="9" t="s">
+      <c r="A44" s="15"/>
+      <c r="B44" s="15" t="s">
         <v>28</v>
       </c>
       <c r="C44" s="2" t="s">
@@ -3134,8 +3979,8 @@
       <c r="K44" s="1"/>
     </row>
     <row r="45" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="9"/>
-      <c r="B45" s="9"/>
+      <c r="A45" s="15"/>
+      <c r="B45" s="15"/>
       <c r="C45" s="2" t="s">
         <v>30</v>
       </c>
@@ -3149,8 +3994,8 @@
       <c r="K45" s="1"/>
     </row>
     <row r="46" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="9"/>
-      <c r="B46" s="9"/>
+      <c r="A46" s="15"/>
+      <c r="B46" s="15"/>
       <c r="C46" s="2" t="s">
         <v>0</v>
       </c>
@@ -3164,17 +4009,17 @@
       <c r="K46" s="1"/>
     </row>
     <row r="47" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="10"/>
-      <c r="B47" s="11"/>
-      <c r="C47" s="11"/>
-      <c r="D47" s="11"/>
-      <c r="E47" s="11"/>
-      <c r="F47" s="11"/>
-      <c r="G47" s="11"/>
-      <c r="H47" s="11"/>
-      <c r="I47" s="11"/>
-      <c r="J47" s="11"/>
-      <c r="K47" s="12"/>
+      <c r="A47" s="9"/>
+      <c r="B47" s="10"/>
+      <c r="C47" s="10"/>
+      <c r="D47" s="10"/>
+      <c r="E47" s="10"/>
+      <c r="F47" s="10"/>
+      <c r="G47" s="10"/>
+      <c r="H47" s="10"/>
+      <c r="I47" s="10"/>
+      <c r="J47" s="10"/>
+      <c r="K47" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="21">
